--- a/results/input_sweep_r17/h2000_M0.25_R1000km_PL350kg/ReqPowDATA.xlsx
+++ b/results/input_sweep_r17/h2000_M0.25_R1000km_PL350kg/ReqPowDATA.xlsx
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49.36928379653468</v>
+        <v>49.22369777964161</v>
       </c>
       <c r="F2" t="n">
-        <v>49.36928379653468</v>
+        <v>49.22369777964161</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>98.73856759306936</v>
+        <v>98.44739555928322</v>
       </c>
       <c r="F3" t="n">
-        <v>98.73856759306936</v>
+        <v>98.44739555928322</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>956.8790731329073</v>
+        <v>954.0572546531653</v>
       </c>
       <c r="F4" t="n">
-        <v>719.225218613615</v>
+        <v>717.1046549178507</v>
       </c>
       <c r="G4" t="n">
-        <v>237.6538545192922</v>
+        <v>236.9525997353146</v>
       </c>
     </row>
     <row r="5">
@@ -561,13 +561,13 @@
         <v>5.047445992327883</v>
       </c>
       <c r="E5" t="n">
-        <v>987.3856759306935</v>
+        <v>984.4739555928322</v>
       </c>
       <c r="F5" t="n">
-        <v>742.1835312950374</v>
+        <v>739.9953387842972</v>
       </c>
       <c r="G5" t="n">
-        <v>245.2021446356562</v>
+        <v>244.4786168085349</v>
       </c>
     </row>
     <row r="6">
@@ -586,10 +586,10 @@
         <v>182.5488694356231</v>
       </c>
       <c r="E6" t="n">
-        <v>392.2451796366415</v>
+        <v>391.0971640279833</v>
       </c>
       <c r="F6" t="n">
-        <v>392.2451796366415</v>
+        <v>391.0971640279833</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>392.239310232453</v>
+        <v>312.8730426515045</v>
       </c>
       <c r="F7" t="n">
-        <v>392.239310232453</v>
+        <v>312.8730426515045</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
